--- a/lab-software-a2025.xlsx
+++ b/lab-software-a2025.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nortonb\Documents\repositories\software-links\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muiseb\Desktop\github\software-links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDFC3F9-4A01-4D71-BE47-C6F053732A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAF2B4F-F9D9-4A81-919E-225B031D43E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{D30E9E8A-B41C-1147-AC7C-32FFE2D622E3}"/>
+    <workbookView xWindow="-25900" yWindow="1610" windowWidth="21560" windowHeight="18170" activeTab="1" xr2:uid="{D30E9E8A-B41C-1147-AC7C-32FFE2D622E3}"/>
   </bookViews>
   <sheets>
     <sheet name="mac-software-a2025" sheetId="1" r:id="rId1"/>
     <sheet name="pc-software-a2025" sheetId="2" r:id="rId2"/>
+    <sheet name="FAB Lab Laptop" sheetId="3" r:id="rId3"/>
+    <sheet name="Rendering Station" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="282">
   <si>
     <t>mac software December 2025</t>
   </si>
@@ -380,9 +382,6 @@
     <t xml:space="preserve">Utilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Visual Studio.app </t>
-  </si>
-  <si>
     <t xml:space="preserve">Visual Studio Code.app </t>
   </si>
   <si>
@@ -819,13 +818,64 @@
   </si>
   <si>
     <t>Scene Group</t>
+  </si>
+  <si>
+    <t>TouchDesigner</t>
+  </si>
+  <si>
+    <t>RODE Central</t>
+  </si>
+  <si>
+    <t>Standard Teacher Install +</t>
+  </si>
+  <si>
+    <t>Silouhette Studio Business install with KEY</t>
+  </si>
+  <si>
+    <t>https://lightburnsoftware.com/</t>
+  </si>
+  <si>
+    <t>https://www.silhouetteamerica.com/silhouette-studio</t>
+  </si>
+  <si>
+    <t>Lightburn 2 upgrade (to be purchased)</t>
+  </si>
+  <si>
+    <t>upgrade to 5.0</t>
+  </si>
+  <si>
+    <t>v/2025.30000</t>
+  </si>
+  <si>
+    <t>Unreal Engine + stuff for Quest VR</t>
+  </si>
+  <si>
+    <t>https://ossia.io/</t>
+  </si>
+  <si>
+    <t>OSSIA Score</t>
+  </si>
+  <si>
+    <t>Platform IO install after restart of VS code</t>
+  </si>
+  <si>
+    <t>Wekinator</t>
+  </si>
+  <si>
+    <t>https://doc.gold.ac.uk/~mas01rf/Wekinator/downloads/</t>
+  </si>
+  <si>
+    <t>VS Code</t>
+  </si>
+  <si>
+    <t>Platform IO install after restart of VS Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -967,8 +1017,16 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1193,6 +1251,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,7 +1377,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1356,8 +1420,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1368,8 +1433,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" xfId="42" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1403,6 +1472,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1743,18 +1813,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E852436D-1A9C-9E40-A860-AC68C06E05CC}">
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1762,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1770,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1778,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1786,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1794,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1802,7 +1872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1810,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1818,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1826,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1834,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1842,7 +1912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1850,7 +1920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1858,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1866,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1874,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1882,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1890,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1898,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1906,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1914,7 +1984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1922,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1930,7 +2000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -1946,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1954,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1962,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
@@ -1970,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1978,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
@@ -1986,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1994,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
@@ -2002,7 +2072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
@@ -2010,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2018,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2026,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2034,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
@@ -2042,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2050,7 +2120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2058,7 +2128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2066,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2074,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
@@ -2082,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
@@ -2090,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2098,7 +2168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
@@ -2106,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
@@ -2114,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2122,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
         <v>47</v>
       </c>
@@ -2130,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2138,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
         <v>49</v>
       </c>
@@ -2146,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
         <v>50</v>
       </c>
@@ -2154,7 +2224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2162,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
         <v>52</v>
       </c>
@@ -2170,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
         <v>53</v>
       </c>
@@ -2178,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
         <v>54</v>
       </c>
@@ -2186,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2194,7 +2264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2202,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2210,7 +2280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2218,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
         <v>59</v>
       </c>
@@ -2226,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2234,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
         <v>61</v>
       </c>
@@ -2242,7 +2312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2250,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2258,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2266,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2274,7 +2344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2282,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
@@ -2290,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
@@ -2298,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
         <v>69</v>
       </c>
@@ -2306,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
@@ -2314,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
@@ -2322,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
         <v>72</v>
       </c>
@@ -2330,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2338,7 +2408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2">
       <c r="A74" s="5" t="s">
         <v>74</v>
       </c>
@@ -2346,7 +2416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2354,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2362,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2370,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2378,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2">
       <c r="A79" s="5" t="s">
         <v>79</v>
       </c>
@@ -2386,7 +2456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2">
       <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
@@ -2394,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2">
       <c r="A81" s="5" t="s">
         <v>81</v>
       </c>
@@ -2402,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2">
       <c r="A82" s="5" t="s">
         <v>82</v>
       </c>
@@ -2410,7 +2480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2418,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2426,7 +2496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2434,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2442,7 +2512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2450,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2458,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2466,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2">
       <c r="A90" s="5" t="s">
         <v>90</v>
       </c>
@@ -2474,7 +2544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2482,7 +2552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2">
       <c r="A92" s="5" t="s">
         <v>92</v>
       </c>
@@ -2490,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:2">
       <c r="A93" s="5" t="s">
         <v>93</v>
       </c>
@@ -2498,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2">
       <c r="A94" s="5" t="s">
         <v>94</v>
       </c>
@@ -2506,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:2">
       <c r="A95" s="5" t="s">
         <v>95</v>
       </c>
@@ -2514,7 +2584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2522,7 +2592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2530,7 +2600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2">
       <c r="A98" s="4" t="s">
         <v>98</v>
       </c>
@@ -2538,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2">
       <c r="A99" s="4" t="s">
         <v>99</v>
       </c>
@@ -2546,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2">
       <c r="A100" s="4" t="s">
         <v>100</v>
       </c>
@@ -2554,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2">
       <c r="A101" s="5" t="s">
         <v>101</v>
       </c>
@@ -2562,7 +2632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2">
       <c r="A102" s="3" t="s">
         <v>102</v>
       </c>
@@ -2570,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2578,7 +2648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2586,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2">
       <c r="A105" s="3" t="s">
         <v>105</v>
       </c>
@@ -2594,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:2">
       <c r="A106" s="5" t="s">
         <v>106</v>
       </c>
@@ -2602,7 +2672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2610,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2618,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:2">
       <c r="A109" s="3" t="s">
         <v>109</v>
       </c>
@@ -2626,7 +2696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2634,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2642,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2650,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2658,7 +2728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2666,15 +2736,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3">
       <c r="A115" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B115" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B115" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2682,15 +2752,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3">
       <c r="A117" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B117" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B117" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -2698,91 +2768,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A119" t="s">
+    <row r="119" spans="1:3">
+      <c r="A119" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B119" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A120" s="3" t="s">
+    <row r="120" spans="1:3">
+      <c r="A120" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B120" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A121" s="3" t="s">
+      <c r="B121" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
         <v>121</v>
       </c>
-      <c r="B121" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A122" t="s">
+      <c r="B122" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
         <v>122</v>
       </c>
-      <c r="B122" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
+      <c r="B123" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
         <v>123</v>
       </c>
-      <c r="B123" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A124" t="s">
+      <c r="B124" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C125" s="10"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
         <v>124</v>
       </c>
-      <c r="B124" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A125" t="s">
+      <c r="B126" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B125" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A126" s="3" t="s">
+      <c r="B127" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
         <v>126</v>
       </c>
-      <c r="B126" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A127" t="s">
+      <c r="B128" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
         <v>127</v>
       </c>
-      <c r="B127" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A128" t="s">
+      <c r="B129" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
         <v>128</v>
       </c>
-      <c r="B128" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2793,761 +2869,895 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020EBFCD-6521-4EF3-8C23-D6E79ECBA814}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:C59"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
-    <col min="2" max="2" width="31.4140625" customWidth="1"/>
-    <col min="3" max="3" width="48.83203125" customWidth="1"/>
+    <col min="2" max="2" width="31.3828125" customWidth="1"/>
+    <col min="3" max="3" width="48.84375" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="9" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+      <c r="B9" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>255</v>
-      </c>
-      <c r="B12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>237</v>
-      </c>
-      <c r="B14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>198</v>
-      </c>
-      <c r="B15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>213</v>
-      </c>
-      <c r="B17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B37" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="B38" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="B40" s="9">
         <v>142</v>
       </c>
       <c r="C40" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="9" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="B41" s="9">
         <v>142</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B43">
         <v>556.12</v>
       </c>
       <c r="C43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>233</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
         <v>234</v>
       </c>
-      <c r="C44" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
         <v>235</v>
       </c>
-      <c r="B45" t="s">
-        <v>236</v>
-      </c>
       <c r="C45" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" t="s">
         <v>211</v>
       </c>
-      <c r="B46" t="s">
-        <v>212</v>
-      </c>
       <c r="C46" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C47" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="C49" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C48" s="9" t="s">
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="9" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A51" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A52" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A53" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A54" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A55" s="9" t="s">
+      <c r="B64" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
         <v>217</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A56" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A57" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A58" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A59" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C59" s="9" t="s">
+      <c r="B66" t="s">
+        <v>218</v>
+      </c>
+      <c r="C66" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A60" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A61" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
+      <c r="B71" t="s">
         <v>168</v>
       </c>
-      <c r="B62" t="s">
-        <v>169</v>
-      </c>
-      <c r="C62" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>218</v>
-      </c>
-      <c r="B63" t="s">
-        <v>219</v>
-      </c>
-      <c r="C63" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A64" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>196</v>
-      </c>
-      <c r="B65" t="s">
-        <v>169</v>
-      </c>
-      <c r="C65" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>250</v>
-      </c>
-      <c r="B66" t="s">
-        <v>245</v>
-      </c>
-      <c r="C66" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
-        <v>202</v>
-      </c>
-      <c r="B67" t="s">
-        <v>169</v>
-      </c>
-      <c r="C67" t="s">
-        <v>153</v>
+      <c r="C71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>249</v>
+      </c>
+      <c r="B72" t="s">
+        <v>244</v>
+      </c>
+      <c r="C72" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>201</v>
+      </c>
+      <c r="B73" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C67">
-    <sortCondition ref="A1:A67"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C73">
+    <sortCondition ref="A1:A73"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="A48" r:id="rId1" display="https://ossia.io/" xr:uid="{79939D21-6A20-4D7E-A1FA-C9D4E3CD75F1}"/>
+    <hyperlink ref="C48" r:id="rId2" xr:uid="{CD0BAB8A-4911-4D56-B4FA-4F3654541A54}"/>
+    <hyperlink ref="C70" r:id="rId3" xr:uid="{11578F01-2EA6-4634-9F58-F382970F2820}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAABDE23-8B64-43F8-95BC-CC412E34E3BC}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.3046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{C4477799-55F6-4947-B44C-244C1047C97D}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{121E9B02-AF71-4263-8F2D-F7DBDD357E81}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A9C12C-9D66-437A-A0CE-D48845057DFD}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="39.84375" customWidth="1"/>
+    <col min="2" max="2" width="46.53515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>